--- a/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H2">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>217.950410399822</v>
+        <v>476.7370292407965</v>
       </c>
       <c r="R2">
-        <v>217.950410399822</v>
+        <v>4290.633263167168</v>
       </c>
       <c r="S2">
-        <v>0.1556815269625793</v>
+        <v>0.2157301877206711</v>
       </c>
       <c r="T2">
-        <v>0.1556815269625793</v>
+        <v>0.2157301877206711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H3">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>454.4027821662335</v>
+        <v>809.3358002273128</v>
       </c>
       <c r="R3">
-        <v>454.4027821662335</v>
+        <v>7284.022202045817</v>
       </c>
       <c r="S3">
-        <v>0.32457896662782</v>
+        <v>0.3662357933264493</v>
       </c>
       <c r="T3">
-        <v>0.32457896662782</v>
+        <v>0.3662357933264494</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H4">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I4">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J4">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>195.0034027143934</v>
+        <v>348.1350161725422</v>
       </c>
       <c r="R4">
-        <v>195.0034027143934</v>
+        <v>3133.21514555288</v>
       </c>
       <c r="S4">
-        <v>0.1392905268762014</v>
+        <v>0.157535974309869</v>
       </c>
       <c r="T4">
-        <v>0.1392905268762014</v>
+        <v>0.1575359743098691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H5">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>4.317576690160941</v>
+        <v>6.426831237678223</v>
       </c>
       <c r="R5">
-        <v>4.317576690160941</v>
+        <v>57.841481139104</v>
       </c>
       <c r="S5">
-        <v>0.003084036091830379</v>
+        <v>0.00290823121409582</v>
       </c>
       <c r="T5">
-        <v>0.003084036091830379</v>
+        <v>0.002908231214095821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H6">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>9.001675457394832</v>
+        <v>10.91055295401645</v>
       </c>
       <c r="R6">
-        <v>9.001675457394832</v>
+        <v>98.19497658614802</v>
       </c>
       <c r="S6">
-        <v>0.006429878144565063</v>
+        <v>0.004937178134986941</v>
       </c>
       <c r="T6">
-        <v>0.006429878144565063</v>
+        <v>0.004937178134986942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H7">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J7">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>3.862998672575196</v>
+        <v>4.693163861071111</v>
       </c>
       <c r="R7">
-        <v>3.862998672575196</v>
+        <v>42.23847474964</v>
       </c>
       <c r="S7">
-        <v>0.002759331954905162</v>
+        <v>0.002123722426942749</v>
       </c>
       <c r="T7">
-        <v>0.002759331954905162</v>
+        <v>0.002123722426942749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="H8">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="I8">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="J8">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>129.5196836585498</v>
+        <v>161.5092547003147</v>
       </c>
       <c r="R8">
-        <v>129.5196836585498</v>
+        <v>1453.583292302832</v>
       </c>
       <c r="S8">
-        <v>0.09251564191452298</v>
+        <v>0.07308520148017683</v>
       </c>
       <c r="T8">
-        <v>0.09251564191452298</v>
+        <v>0.07308520148017685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="H9">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="I9">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="J9">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>270.0343830129514</v>
+        <v>274.1872644236593</v>
       </c>
       <c r="R9">
-        <v>270.0343830129514</v>
+        <v>2467.685379812934</v>
       </c>
       <c r="S9">
-        <v>0.1928850007794644</v>
+        <v>0.1240735801851398</v>
       </c>
       <c r="T9">
-        <v>0.1928850007794644</v>
+        <v>0.1240735801851398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="H10">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="I10">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="J10">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>115.8831450951453</v>
+        <v>117.9413881205133</v>
       </c>
       <c r="R10">
-        <v>115.8831450951453</v>
+        <v>1061.47249308462</v>
       </c>
       <c r="S10">
-        <v>0.08277509064811135</v>
+        <v>0.05337013120166827</v>
       </c>
       <c r="T10">
-        <v>0.08277509064811135</v>
+        <v>0.05337013120166827</v>
       </c>
     </row>
   </sheetData>
